--- a/biology/Botanique/Myosotis_decumbens/Myosotis_decumbens.xlsx
+++ b/biology/Botanique/Myosotis_decumbens/Myosotis_decumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myosotis rampant
-Myosotis decumbens, le Myosotis rampant, est une espèce de petites plantes herbacées de la famille des Boraginacées[1].
+Myosotis decumbens, le Myosotis rampant, est une espèce de petites plantes herbacées de la famille des Boraginacées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 février 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 février 2024) :
 Myosotis decumbens subsp. decumbens
 Myosotis decumbens subsp. florentina Grau
 Myosotis decumbens subsp. kerneri (Dalla Torre &amp; Sarnth.) Grau
@@ -548,14 +562,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Myosotis decumbens Host (d)[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Myosotis rampant[4], Myosotis retombant[4],[5], Myosotis étalé[5].
-Myosotis decumbens a pour synonyme[3] :
-Myosotis teresima Sennen[3]
-Myosotis frigida (Vestergr.) Czernov[2]
-Myosotis sylvatica frigida Vestergr.[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Myosotis decumbens Host (d).
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Myosotis rampant, Myosotis retombant Myosotis étalé.
+Myosotis decumbens a pour synonyme :
+Myosotis teresima Sennen
+Myosotis frigida (Vestergr.) Czernov
+Myosotis sylvatica frigida Vestergr.</t>
         </is>
       </c>
     </row>
